--- a/Old Order Summary Acc/Meghna Knit Composite/Meghna Knit.xlsx
+++ b/Old Order Summary Acc/Meghna Knit Composite/Meghna Knit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="289">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -872,6 +872,18 @@
   </si>
   <si>
     <t>rib</t>
+  </si>
+  <si>
+    <t>13.09.21</t>
+  </si>
+  <si>
+    <t>1/1 rib</t>
+  </si>
+  <si>
+    <t>13.9.21</t>
+  </si>
+  <si>
+    <t>Loss Yarn</t>
   </si>
 </sst>
 </file>
@@ -1379,9 +1391,9 @@
   <dimension ref="A1:Q465"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1200" topLeftCell="A445" activePane="bottomLeft"/>
+      <pane ySplit="1200" topLeftCell="A417" activePane="bottomLeft"/>
       <selection activeCell="G238" sqref="G238"/>
-      <selection pane="bottomLeft" activeCell="O456" sqref="O456"/>
+      <selection pane="bottomLeft" activeCell="N431" sqref="N431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,10 +5494,18 @@
       <c r="H127" s="4"/>
       <c r="I127" s="8"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="9"/>
+      <c r="K127" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L127" s="8">
+        <v>1708</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9">
+        <v>62</v>
+      </c>
       <c r="O127" s="11"/>
       <c r="P127" s="15"/>
       <c r="Q127" s="4"/>
@@ -5528,7 +5548,7 @@
       <c r="M129" s="12"/>
       <c r="N129" s="11">
         <f>SUM(N123:N128)</f>
-        <v>2438</v>
+        <v>2500</v>
       </c>
       <c r="O129" s="11">
         <f>SUM(O123:O128)</f>
@@ -5536,7 +5556,7 @@
       </c>
       <c r="P129" s="15">
         <f>N129-J129+O129</f>
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="4"/>
     </row>
@@ -5652,10 +5672,19 @@
       <c r="H133" s="4"/>
       <c r="I133" s="8"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="9"/>
+      <c r="K133" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L133" s="8">
+        <v>1708</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9">
+        <f>104+93-62</f>
+        <v>135</v>
+      </c>
       <c r="O133" s="11"/>
       <c r="P133" s="15"/>
       <c r="Q133" s="4"/>
@@ -5679,7 +5708,7 @@
       <c r="M134" s="12"/>
       <c r="N134" s="11">
         <f>SUM(N130:N133)</f>
-        <v>2270</v>
+        <v>2405</v>
       </c>
       <c r="O134" s="11">
         <f>SUM(O130:O133)</f>
@@ -5687,7 +5716,7 @@
       </c>
       <c r="P134" s="15">
         <f>N134-J134+O134</f>
-        <v>-330</v>
+        <v>-195</v>
       </c>
       <c r="Q134" s="4"/>
     </row>
@@ -13065,10 +13094,19 @@
       <c r="J388" s="9">
         <v>483</v>
       </c>
-      <c r="K388" s="8"/>
-      <c r="L388" s="8"/>
-      <c r="M388" s="8"/>
-      <c r="N388" s="9"/>
+      <c r="K388" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L388" s="8">
+        <v>1707</v>
+      </c>
+      <c r="M388" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N388" s="9">
+        <f>186+9</f>
+        <v>195</v>
+      </c>
       <c r="O388" s="9"/>
       <c r="P388" s="15"/>
       <c r="Q388" s="4"/>
@@ -13198,7 +13236,7 @@
       <c r="M393" s="12"/>
       <c r="N393" s="11">
         <f>SUM(N386:N392)</f>
-        <v>754</v>
+        <v>949</v>
       </c>
       <c r="O393" s="11">
         <f>SUM(O386:O392)</f>
@@ -13206,7 +13244,7 @@
       </c>
       <c r="P393" s="16">
         <f>N393-J393+O393</f>
-        <v>-196</v>
+        <v>-1</v>
       </c>
       <c r="Q393" s="4"/>
     </row>
@@ -13574,10 +13612,18 @@
       <c r="H405" s="4"/>
       <c r="I405" s="8"/>
       <c r="J405" s="9"/>
-      <c r="K405" s="12"/>
-      <c r="L405" s="12"/>
-      <c r="M405" s="12"/>
-      <c r="N405" s="11"/>
+      <c r="K405" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L405" s="12">
+        <v>1707</v>
+      </c>
+      <c r="M405" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="N405" s="11">
+        <v>1364</v>
+      </c>
       <c r="O405" s="11"/>
       <c r="P405" s="16"/>
       <c r="Q405" s="4"/>
@@ -13593,10 +13639,18 @@
       <c r="H406" s="4"/>
       <c r="I406" s="8"/>
       <c r="J406" s="9"/>
-      <c r="K406" s="12"/>
-      <c r="L406" s="12"/>
-      <c r="M406" s="12"/>
-      <c r="N406" s="11"/>
+      <c r="K406" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L406" s="12">
+        <v>1708</v>
+      </c>
+      <c r="M406" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="N406" s="11">
+        <v>300</v>
+      </c>
       <c r="O406" s="11"/>
       <c r="P406" s="16"/>
       <c r="Q406" s="4"/>
@@ -13658,7 +13712,7 @@
       <c r="M409" s="12"/>
       <c r="N409" s="11">
         <f>SUM(N404:N408)</f>
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="O409" s="11">
         <f>SUM(O404:O408)</f>
@@ -13666,7 +13720,7 @@
       </c>
       <c r="P409" s="16">
         <f>N409-J409+O409</f>
-        <v>-3500</v>
+        <v>-1836</v>
       </c>
       <c r="Q409" s="4"/>
     </row>
@@ -14106,10 +14160,18 @@
       <c r="J423" s="9">
         <v>167</v>
       </c>
-      <c r="K423" s="8"/>
-      <c r="L423" s="8"/>
-      <c r="M423" s="8"/>
-      <c r="N423" s="9"/>
+      <c r="K423" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L423" s="8">
+        <v>1708</v>
+      </c>
+      <c r="M423" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N423" s="9">
+        <v>59</v>
+      </c>
       <c r="O423" s="11"/>
       <c r="P423" s="16"/>
       <c r="Q423" s="4"/>
@@ -14189,7 +14251,7 @@
       <c r="M426" s="12"/>
       <c r="N426" s="11">
         <f>SUM(N421:N425)</f>
-        <v>1156</v>
+        <v>1215</v>
       </c>
       <c r="O426" s="11">
         <f>SUM(O421:O425)</f>
@@ -14197,7 +14259,7 @@
       </c>
       <c r="P426" s="16">
         <f>N426-J426+O426</f>
-        <v>-56</v>
+        <v>3</v>
       </c>
       <c r="Q426" s="4"/>
     </row>
@@ -14279,10 +14341,18 @@
       <c r="J428" s="9">
         <v>686</v>
       </c>
-      <c r="K428" s="8"/>
-      <c r="L428" s="8"/>
-      <c r="M428" s="8"/>
-      <c r="N428" s="9"/>
+      <c r="K428" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L428" s="8">
+        <v>1707</v>
+      </c>
+      <c r="M428" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N428" s="9">
+        <v>475</v>
+      </c>
       <c r="O428" s="11"/>
       <c r="P428" s="16"/>
       <c r="Q428" s="4"/>
@@ -14298,10 +14368,18 @@
       <c r="H429" s="4"/>
       <c r="I429" s="8"/>
       <c r="J429" s="9"/>
-      <c r="K429" s="8"/>
-      <c r="L429" s="8"/>
-      <c r="M429" s="8"/>
-      <c r="N429" s="9"/>
+      <c r="K429" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L429" s="8">
+        <v>1708</v>
+      </c>
+      <c r="M429" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N429" s="9">
+        <v>620</v>
+      </c>
       <c r="O429" s="11"/>
       <c r="P429" s="16"/>
       <c r="Q429" s="4"/>
@@ -14317,10 +14395,18 @@
       <c r="H430" s="4"/>
       <c r="I430" s="8"/>
       <c r="J430" s="9"/>
-      <c r="K430" s="8"/>
-      <c r="L430" s="8"/>
-      <c r="M430" s="8"/>
-      <c r="N430" s="9"/>
+      <c r="K430" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="L430" s="8">
+        <v>1709</v>
+      </c>
+      <c r="M430" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N430" s="9">
+        <v>22</v>
+      </c>
       <c r="O430" s="11"/>
       <c r="P430" s="16"/>
       <c r="Q430" s="4"/>
@@ -14363,7 +14449,7 @@
       <c r="M432" s="12"/>
       <c r="N432" s="11">
         <f>SUM(N427:N431)</f>
-        <v>1145</v>
+        <v>2262</v>
       </c>
       <c r="O432" s="11">
         <f>SUM(O427:O431)</f>
@@ -14371,7 +14457,7 @@
       </c>
       <c r="P432" s="16">
         <f>N432-J432+O432</f>
-        <v>-1183</v>
+        <v>-66</v>
       </c>
       <c r="Q432" s="4"/>
     </row>
@@ -14685,10 +14771,18 @@
       <c r="H444" s="4"/>
       <c r="I444" s="8"/>
       <c r="J444" s="9"/>
-      <c r="K444" s="12"/>
-      <c r="L444" s="12"/>
-      <c r="M444" s="12"/>
-      <c r="N444" s="11"/>
+      <c r="K444" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L444" s="12">
+        <v>1707</v>
+      </c>
+      <c r="M444" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N444" s="11">
+        <v>954</v>
+      </c>
       <c r="O444" s="11"/>
       <c r="P444" s="16"/>
       <c r="Q444" s="4"/>
@@ -14750,7 +14844,7 @@
       <c r="M447" s="12"/>
       <c r="N447" s="11">
         <f>SUM(N443:N446)</f>
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="O447" s="11">
         <f>SUM(O443:O446)</f>
@@ -14758,7 +14852,7 @@
       </c>
       <c r="P447" s="16">
         <f>N447-J447+O447</f>
-        <v>-2500</v>
+        <v>-1546</v>
       </c>
       <c r="Q447" s="4"/>
     </row>
@@ -14993,7 +15087,7 @@
       <c r="M459" s="12"/>
       <c r="N459" s="11">
         <f>+N447+N442+N437+N432+N426+N420+N414+N403+N409+N398+N393+N385+N379+N373+N365+N360+N351+N346+N338+N333+N327+N322+N316+N308+N303+N297+N292+N287+N282+N276+N270+N265+N258+N253+N247+N241+N235+N230+N225+N219+N213+N207+N201+N193+N188+N183+N179+N174+N169+N164+N159+N154+N148+N139+N134+N122+N129+N113+N108+N103+N98+N93+N84+N80+N68+N63+N56+N45+N37+N25+N19+N14</f>
-        <v>144153.32</v>
+        <v>148339.32</v>
       </c>
       <c r="O459" s="11">
         <f>+O447+O442+O437+O432+O426+O420+O414+O403+O409+O398+O393+O385+O379+O373+O365+O360+O351+O346+O338+O333+O327+O322+O316+O308+O303+O297+O292+O287+O282+O276+O270+O265+O258+O253+O247+O241+O235+O230+O225+O219+O213+O207+O201+O193+O188+O183+O179+O174+O169+O164+O159+O154+O148+O139+O134+O122+O129+O113+O108+O103+O98+O93+O84+O80+O68+O63+O56+O45+O37+O25+O19+O14</f>
@@ -15001,14 +15095,14 @@
       </c>
       <c r="P459" s="18">
         <f>SUM(P7:P458)</f>
-        <v>-14591.1</v>
+        <v>-10405.1</v>
       </c>
       <c r="Q459" s="4"/>
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N460" s="17">
         <f>J459-N459</f>
-        <v>14843.099999999977</v>
+        <v>10657.099999999977</v>
       </c>
       <c r="O460" s="17"/>
     </row>

--- a/Old Order Summary Acc/Meghna Knit Composite/Meghna Knit.xlsx
+++ b/Old Order Summary Acc/Meghna Knit Composite/Meghna Knit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="295">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -884,6 +884,24 @@
   </si>
   <si>
     <t>Loss Yarn</t>
+  </si>
+  <si>
+    <t>18.09.21</t>
+  </si>
+  <si>
+    <t>19.09.21</t>
+  </si>
+  <si>
+    <t>32/24</t>
+  </si>
+  <si>
+    <t>34/24</t>
+  </si>
+  <si>
+    <t>20.09.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1391,9 +1409,9 @@
   <dimension ref="A1:Q465"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1200" topLeftCell="A417" activePane="bottomLeft"/>
+      <pane ySplit="1200" topLeftCell="A313" activePane="bottomLeft"/>
       <selection activeCell="G238" sqref="G238"/>
-      <selection pane="bottomLeft" activeCell="N431" sqref="N431"/>
+      <selection pane="bottomLeft" activeCell="H326" sqref="H326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11298,10 +11316,18 @@
       <c r="H324" s="4"/>
       <c r="I324" s="8"/>
       <c r="J324" s="9"/>
-      <c r="K324" s="8"/>
-      <c r="L324" s="8"/>
-      <c r="M324" s="8"/>
-      <c r="N324" s="9"/>
+      <c r="K324" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L324" s="8">
+        <v>1741</v>
+      </c>
+      <c r="M324" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N324" s="9">
+        <v>748</v>
+      </c>
       <c r="O324" s="9"/>
       <c r="P324" s="15"/>
       <c r="Q324" s="4"/>
@@ -11363,7 +11389,7 @@
       <c r="M327" s="12"/>
       <c r="N327" s="11">
         <f>SUM(N323:N326)</f>
-        <v>1254</v>
+        <v>2002</v>
       </c>
       <c r="O327" s="11">
         <f>SUM(O323:O326)</f>
@@ -11371,7 +11397,7 @@
       </c>
       <c r="P327" s="16">
         <f>N327-J327+O327</f>
-        <v>-1246</v>
+        <v>-498</v>
       </c>
       <c r="Q327" s="4"/>
     </row>
@@ -13666,10 +13692,18 @@
       <c r="H407" s="4"/>
       <c r="I407" s="8"/>
       <c r="J407" s="9"/>
-      <c r="K407" s="12"/>
-      <c r="L407" s="12"/>
-      <c r="M407" s="12"/>
-      <c r="N407" s="11"/>
+      <c r="K407" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="L407" s="12">
+        <v>1724</v>
+      </c>
+      <c r="M407" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="N407" s="11">
+        <v>1551</v>
+      </c>
       <c r="O407" s="11"/>
       <c r="P407" s="16"/>
       <c r="Q407" s="4"/>
@@ -13712,7 +13746,7 @@
       <c r="M409" s="12"/>
       <c r="N409" s="11">
         <f>SUM(N404:N408)</f>
-        <v>1664</v>
+        <v>3215</v>
       </c>
       <c r="O409" s="11">
         <f>SUM(O404:O408)</f>
@@ -13720,7 +13754,7 @@
       </c>
       <c r="P409" s="16">
         <f>N409-J409+O409</f>
-        <v>-1836</v>
+        <v>-285</v>
       </c>
       <c r="Q409" s="4"/>
     </row>
@@ -13782,10 +13816,18 @@
       <c r="H411" s="4"/>
       <c r="I411" s="8"/>
       <c r="J411" s="9"/>
-      <c r="K411" s="8"/>
-      <c r="L411" s="8"/>
-      <c r="M411" s="8"/>
-      <c r="N411" s="9"/>
+      <c r="K411" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L411" s="8">
+        <v>1741</v>
+      </c>
+      <c r="M411" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N411" s="9">
+        <v>1352</v>
+      </c>
       <c r="O411" s="11"/>
       <c r="P411" s="16"/>
       <c r="Q411" s="4"/>
@@ -13804,7 +13846,9 @@
       <c r="K412" s="8"/>
       <c r="L412" s="8"/>
       <c r="M412" s="8"/>
-      <c r="N412" s="9"/>
+      <c r="N412" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="O412" s="11"/>
       <c r="P412" s="16"/>
       <c r="Q412" s="4"/>
@@ -13847,7 +13891,7 @@
       <c r="M414" s="12"/>
       <c r="N414" s="11">
         <f>SUM(N410:N413)</f>
-        <v>317</v>
+        <v>1669</v>
       </c>
       <c r="O414" s="11">
         <f>SUM(O410:O413)</f>
@@ -13855,7 +13899,7 @@
       </c>
       <c r="P414" s="16">
         <f>N414-J414+O414</f>
-        <v>-1401</v>
+        <v>-49</v>
       </c>
       <c r="Q414" s="4"/>
     </row>
@@ -14513,13 +14557,23 @@
       <c r="H434" s="4"/>
       <c r="I434" s="8"/>
       <c r="J434" s="9"/>
-      <c r="K434" s="12"/>
-      <c r="L434" s="12"/>
-      <c r="M434" s="12"/>
-      <c r="N434" s="11"/>
+      <c r="K434" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L434" s="12">
+        <v>1731</v>
+      </c>
+      <c r="M434" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N434" s="11">
+        <v>730</v>
+      </c>
       <c r="O434" s="11"/>
       <c r="P434" s="16"/>
-      <c r="Q434" s="4"/>
+      <c r="Q434" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
@@ -14532,10 +14586,18 @@
       <c r="H435" s="4"/>
       <c r="I435" s="8"/>
       <c r="J435" s="9"/>
-      <c r="K435" s="12"/>
-      <c r="L435" s="12"/>
-      <c r="M435" s="12"/>
-      <c r="N435" s="11"/>
+      <c r="K435" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L435" s="12">
+        <v>1741</v>
+      </c>
+      <c r="M435" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N435" s="11">
+        <v>203</v>
+      </c>
       <c r="O435" s="11"/>
       <c r="P435" s="16"/>
       <c r="Q435" s="4"/>
@@ -14578,7 +14640,7 @@
       <c r="M437" s="12"/>
       <c r="N437" s="11">
         <f>SUM(N433:N436)</f>
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="O437" s="11">
         <f>SUM(O433:O436)</f>
@@ -14586,7 +14648,7 @@
       </c>
       <c r="P437" s="16">
         <f>N437-J437+O437</f>
-        <v>-1000</v>
+        <v>-67</v>
       </c>
       <c r="Q437" s="4"/>
     </row>
@@ -14642,13 +14704,23 @@
       <c r="H439" s="4"/>
       <c r="I439" s="8"/>
       <c r="J439" s="9"/>
-      <c r="K439" s="12"/>
-      <c r="L439" s="12"/>
-      <c r="M439" s="12"/>
-      <c r="N439" s="11"/>
+      <c r="K439" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L439" s="12">
+        <v>1731</v>
+      </c>
+      <c r="M439" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N439" s="11">
+        <v>1795</v>
+      </c>
       <c r="O439" s="11"/>
       <c r="P439" s="16"/>
-      <c r="Q439" s="4"/>
+      <c r="Q439" s="4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
@@ -14661,10 +14733,18 @@
       <c r="H440" s="4"/>
       <c r="I440" s="8"/>
       <c r="J440" s="9"/>
-      <c r="K440" s="12"/>
-      <c r="L440" s="12"/>
-      <c r="M440" s="12"/>
-      <c r="N440" s="11"/>
+      <c r="K440" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L440" s="12">
+        <v>1741</v>
+      </c>
+      <c r="M440" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N440" s="11">
+        <v>137</v>
+      </c>
       <c r="O440" s="11"/>
       <c r="P440" s="16"/>
       <c r="Q440" s="4"/>
@@ -14707,7 +14787,7 @@
       <c r="M442" s="12"/>
       <c r="N442" s="11">
         <f>SUM(N438:N441)</f>
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="O442" s="11">
         <f>SUM(O438:O441)</f>
@@ -14715,7 +14795,7 @@
       </c>
       <c r="P442" s="16">
         <f>N442-J442+O442</f>
-        <v>-2237</v>
+        <v>-305</v>
       </c>
       <c r="Q442" s="4"/>
     </row>
@@ -14798,10 +14878,18 @@
       <c r="H445" s="4"/>
       <c r="I445" s="8"/>
       <c r="J445" s="9"/>
-      <c r="K445" s="12"/>
-      <c r="L445" s="12"/>
-      <c r="M445" s="12"/>
-      <c r="N445" s="11"/>
+      <c r="K445" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="L445" s="12">
+        <v>1724</v>
+      </c>
+      <c r="M445" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N445" s="11">
+        <v>1508</v>
+      </c>
       <c r="O445" s="11"/>
       <c r="P445" s="16"/>
       <c r="Q445" s="4"/>
@@ -14844,7 +14932,7 @@
       <c r="M447" s="12"/>
       <c r="N447" s="11">
         <f>SUM(N443:N446)</f>
-        <v>954</v>
+        <v>2462</v>
       </c>
       <c r="O447" s="11">
         <f>SUM(O443:O446)</f>
@@ -14852,7 +14940,7 @@
       </c>
       <c r="P447" s="16">
         <f>N447-J447+O447</f>
-        <v>-1546</v>
+        <v>-38</v>
       </c>
       <c r="Q447" s="4"/>
     </row>
@@ -15087,7 +15175,7 @@
       <c r="M459" s="12"/>
       <c r="N459" s="11">
         <f>+N447+N442+N437+N432+N426+N420+N414+N403+N409+N398+N393+N385+N379+N373+N365+N360+N351+N346+N338+N333+N327+N322+N316+N308+N303+N297+N292+N287+N282+N276+N270+N265+N258+N253+N247+N241+N235+N230+N225+N219+N213+N207+N201+N193+N188+N183+N179+N174+N169+N164+N159+N154+N148+N139+N134+N122+N129+N113+N108+N103+N98+N93+N84+N80+N68+N63+N56+N45+N37+N25+N19+N14</f>
-        <v>148339.32</v>
+        <v>156363.32</v>
       </c>
       <c r="O459" s="11">
         <f>+O447+O442+O437+O432+O426+O420+O414+O403+O409+O398+O393+O385+O379+O373+O365+O360+O351+O346+O338+O333+O327+O322+O316+O308+O303+O297+O292+O287+O282+O276+O270+O265+O258+O253+O247+O241+O235+O230+O225+O219+O213+O207+O201+O193+O188+O183+O179+O174+O169+O164+O159+O154+O148+O139+O134+O122+O129+O113+O108+O103+O98+O93+O84+O80+O68+O63+O56+O45+O37+O25+O19+O14</f>
@@ -15095,14 +15183,14 @@
       </c>
       <c r="P459" s="18">
         <f>SUM(P7:P458)</f>
-        <v>-10405.1</v>
+        <v>-2381.1</v>
       </c>
       <c r="Q459" s="4"/>
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N460" s="17">
         <f>J459-N459</f>
-        <v>10657.099999999977</v>
+        <v>2633.0999999999767</v>
       </c>
       <c r="O460" s="17"/>
     </row>
